--- a/entropy_pooling/sample_portfolio1_constrs.xlsx
+++ b/entropy_pooling/sample_portfolio1_constrs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Ilmari/Documents/OR semma/entropy-poolin/entropy_pooling/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0CD67C5E-7BA4-944C-84F8-3CA0DF461551}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BBBF494-2D76-4D41-9A1C-064195DC1210}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="1500" windowWidth="27240" windowHeight="14900" xr2:uid="{8A1031AC-B22B-5548-8203-281A2D69F6C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -413,7 +413,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -447,10 +447,10 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>500000</v>
+        <v>0.5</v>
       </c>
       <c r="F2">
-        <v>1000000</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -467,7 +467,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1000</v>
+        <v>1E-3</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -484,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>500000</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
@@ -498,10 +498,10 @@
         <v>1</v>
       </c>
       <c r="E5">
-        <v>1000000</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1000000</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
